--- a/Experiment/Query_time_9_21.xlsx
+++ b/Experiment/Query_time_9_21.xlsx
@@ -11,9 +11,6 @@
     <sheet name="Clustered" sheetId="17" r:id="rId2"/>
     <sheet name="Zipf" sheetId="18" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="random_query_time_9_27" localSheetId="1">Clustered!$A$1:$H$135</definedName>
     <definedName name="random_query_time_9_27" localSheetId="0">Random!$A$1:$H$134</definedName>
@@ -7967,74 +7964,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dataset"/>
-      <sheetName val="index_size"/>
-      <sheetName val="construction_time"/>
-      <sheetName val="20_128"/>
-      <sheetName val="20_64"/>
-      <sheetName val="20_32"/>
-      <sheetName val="20_16"/>
-      <sheetName val="20_8"/>
-      <sheetName val="80_128"/>
-      <sheetName val="20_4"/>
-      <sheetName val="20_2"/>
-      <sheetName val="Patent_20"/>
-      <sheetName val="citeseerx_20"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="57">
-          <cell r="Q57">
-            <v>1.5954440000000001</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="Q58">
-            <v>3.7747679999999999</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="Q59">
-            <v>6.5404010000000001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="Q60">
-            <v>6.967956</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="Q61">
-            <v>16.087292999999999</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="Q62">
-            <v>25.037600000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="random_query_time_9_27" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -9461,10 +9390,10 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A29" sqref="A29"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11815,7 +11744,7 @@
         <v>66</v>
       </c>
       <c r="G116">
-        <v>22076</v>
+        <v>15861</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -11840,6 +11769,9 @@
       <c r="F117">
         <v>65</v>
       </c>
+      <c r="G117">
+        <v>546973</v>
+      </c>
       <c r="H117">
         <v>0</v>
       </c>
@@ -11918,7 +11850,7 @@
         <v>65</v>
       </c>
       <c r="G122">
-        <v>11261</v>
+        <v>4779</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11943,6 +11875,9 @@
       <c r="F123">
         <v>62</v>
       </c>
+      <c r="G123">
+        <v>5314</v>
+      </c>
       <c r="H123">
         <v>0</v>
       </c>
@@ -11966,6 +11901,9 @@
       <c r="F124">
         <v>62</v>
       </c>
+      <c r="G124">
+        <v>10891</v>
+      </c>
       <c r="H124">
         <v>0</v>
       </c>
@@ -11988,6 +11926,9 @@
       </c>
       <c r="F125">
         <v>63</v>
+      </c>
+      <c r="G125">
+        <v>489104</v>
       </c>
       <c r="H125">
         <v>0</v>
